--- a/文档/爬取图片链接及要求.xlsx
+++ b/文档/爬取图片链接及要求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,14 +158,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,92 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,78 +300,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,108 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,26 +494,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,36 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +551,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -591,6 +576,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,137 +611,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +759,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1085,17 +1088,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="67.9833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="77.5666666666667" customWidth="1"/>
     <col min="3" max="3" width="103.141666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.2" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1132,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1140,7 +1143,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1151,10 +1154,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
@@ -1173,7 +1176,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1184,7 +1187,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -1195,7 +1198,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1206,7 +1209,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
@@ -1217,7 +1220,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">

--- a/文档/爬取图片链接及要求.xlsx
+++ b/文档/爬取图片链接及要求.xlsx
@@ -120,8 +120,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -158,7 +158,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,105 +272,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,19 +306,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,85 +432,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,67 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +491,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,48 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,6 +529,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +567,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,133 +611,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
